--- a/biology/Botanique/Agropyron_cristatum/Agropyron_cristatum.xlsx
+++ b/biology/Botanique/Agropyron_cristatum/Agropyron_cristatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agropyron cristatum (agropyre à crête) est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Eurasie.
 C'est une plante herbacée vivace, cespiteuse, résistante à la sécheresse, qui s'établit en peuplements denses, monospécifiques, qui tendent à supplanter la végétation indigène. Elle est souvent cultivée comme plante fourragère ou pour lutter contre l'érosion. C'est une plante bien connue comme espèce introduite et envahissante, largement répandue dans les prairies des États-Unis et du Canada.
 Noms vernaculaires
-agropyre à crête, agropyron accrêté, chiendent à crête, chiendent pectiné[2].
+agropyre à crête, agropyron accrêté, chiendent à crête, chiendent pectiné.
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agropyron cristatum est une plante herbacée formant des touffes denses, dont les tiges (chaumes) dressées peuvent atteindre  30 à 50 cm de haut à maturité. 
 Les gaines foliaires sont scabres, et celles de la base sont pubescentes.
 Le limbe foliaire qui peut avoir jusqu'à 8 mm de large, est scabre à pubescent à la face supérieure.
 L'inflorescence est un épi plat, long de 2 à 7 cm, composé d'épillets de 8 à 15 mm de long, comptant 3 à 5 fleurons.
-Les glumes, de 4 à 6 mm de long, portent une arête à leur extrémité. Les glumelles (lemmes), de 4 à 6 mm de long, portent une arête ou non[3].
+Les glumes, de 4 à 6 mm de long, portent une arête à leur extrémité. Les glumelles (lemmes), de 4 à 6 mm de long, portent une arête ou non.
  Agropyron cristatum  est l'une des espèces de graminées qui connait un taux de prédation de ses graines parmi les plus élevés. Certaines espèces animales, granivores, se nourrissent des graines de cette plante comme source d'alimentation principale, voire exclusive. Même si cela pourrait être un risque pour la capacité de la plante de se reproduire durablement si ses graines étaient toutes consommées, cette forte prédation démontre qu'Agropyron cristatum est une source de nourriture importante pour la faune.
 </t>
         </is>
@@ -550,10 +564,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d''Agropyron cristatum se trouve en Eurasie et comprend une vaste zone englobant les montagnes de l'Altaï, la Sibérie centrale, la Yakoutie et l'Extrême-Orient russe, la Mongolie et le nord de la Chine, le Japon, la Corée, le Pakistan, le sud-ouest de l'Asie et l'Europe. 
-L'espèce a été introduite dans d'autres régions du monde où elle s'est naturalisée : Australasie, Amérique du Nord et du Sud, et Afrique du Nord[2]. 
+L'espèce a été introduite dans d'autres régions du monde où elle s'est naturalisée : Australasie, Amérique du Nord et du Sud, et Afrique du Nord. 
 </t>
         </is>
       </c>
@@ -582,17 +598,54 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agropyron cristatum a été décrite initialement en 1753 par Linné sous le nom de Bromus cristatus[4], puis reclassée par  Joseph Gaertner dans le genre Agropyron et publiée dans Novi Commentarii Academiae Scientiarum Imperalis Petropolitanae (14: 540) en 1770[5]. 
-Liste des sous-espèces et variétés
-Selon NCBI  (1 juillet 2016)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agropyron cristatum a été décrite initialement en 1753 par Linné sous le nom de Bromus cristatus, puis reclassée par  Joseph Gaertner dans le genre Agropyron et publiée dans Novi Commentarii Academiae Scientiarum Imperalis Petropolitanae (14: 540) en 1770. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agropyron_cristatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agropyron_cristatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 juillet 2016) :
 sous-espèce Agropyron cristatum subsp. incanum
 sous-espèce Agropyron cristatum subsp. pectinatum
 variété Agropyron cristatum var. imbricatum
 variété Agropyron cristatum var. pectinatum
 sous-espèce Agropyron cristatum subsp. ponticum
-Selon Tropicos                                           (1 juillet 2016)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Agropyron cristatum subsp. badamense (Drobow) Á. Löve
 sous-espèce Agropyron cristatum subsp. baicalense E.M. Egorova &amp; Sipliv.
 sous-espèce Agropyron cristatum subsp. birjutczense (Lavrenko) Á. Löve
